--- a/Assets/06.Table/SulPass.xlsx
+++ b/Assets/06.Table/SulPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6525E6-8F4F-44F9-97E4-B8ABAC317E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22402B06-C6DA-4FCA-A4BF-32EB28679E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C247" sqref="C247:F251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3892,6 +3892,1606 @@
         <v>0</v>
       </c>
     </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2">
+        <v>50250000</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E172" s="1">
+        <v>0</v>
+      </c>
+      <c r="F172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1">
+        <v>50500000</v>
+      </c>
+      <c r="C173" s="1">
+        <v>2</v>
+      </c>
+      <c r="D173" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E173" s="1">
+        <v>0</v>
+      </c>
+      <c r="F173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="1">
+        <v>50750000</v>
+      </c>
+      <c r="C174" s="1">
+        <v>5</v>
+      </c>
+      <c r="D174" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E174" s="1">
+        <v>0</v>
+      </c>
+      <c r="F174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>173</v>
+      </c>
+      <c r="B175" s="1">
+        <v>51000000</v>
+      </c>
+      <c r="C175" s="1">
+        <v>14</v>
+      </c>
+      <c r="D175" s="1">
+        <v>3</v>
+      </c>
+      <c r="E175" s="1">
+        <v>0</v>
+      </c>
+      <c r="F175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" s="2">
+        <v>51250000</v>
+      </c>
+      <c r="C176" s="2">
+        <v>20</v>
+      </c>
+      <c r="D176" s="2">
+        <v>300</v>
+      </c>
+      <c r="E176" s="1">
+        <v>0</v>
+      </c>
+      <c r="F176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1">
+        <v>51500000</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E177" s="1">
+        <v>0</v>
+      </c>
+      <c r="F177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1">
+        <v>51750000</v>
+      </c>
+      <c r="C178" s="1">
+        <v>2</v>
+      </c>
+      <c r="D178" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E178" s="1">
+        <v>0</v>
+      </c>
+      <c r="F178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" s="1">
+        <v>52000000</v>
+      </c>
+      <c r="C179" s="1">
+        <v>5</v>
+      </c>
+      <c r="D179" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E179" s="1">
+        <v>0</v>
+      </c>
+      <c r="F179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" s="1">
+        <v>52250000</v>
+      </c>
+      <c r="C180" s="1">
+        <v>14</v>
+      </c>
+      <c r="D180" s="1">
+        <v>3</v>
+      </c>
+      <c r="E180" s="1">
+        <v>0</v>
+      </c>
+      <c r="F180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2">
+        <v>52500000</v>
+      </c>
+      <c r="C181" s="2">
+        <v>20</v>
+      </c>
+      <c r="D181" s="2">
+        <v>300</v>
+      </c>
+      <c r="E181" s="1">
+        <v>0</v>
+      </c>
+      <c r="F181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="1">
+        <v>52750000</v>
+      </c>
+      <c r="C182" s="1">
+        <v>1</v>
+      </c>
+      <c r="D182" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E182" s="1">
+        <v>0</v>
+      </c>
+      <c r="F182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2">
+        <v>53000000</v>
+      </c>
+      <c r="C183" s="1">
+        <v>2</v>
+      </c>
+      <c r="D183" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E183" s="1">
+        <v>0</v>
+      </c>
+      <c r="F183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" s="1">
+        <v>53250000</v>
+      </c>
+      <c r="C184" s="1">
+        <v>5</v>
+      </c>
+      <c r="D184" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E184" s="1">
+        <v>0</v>
+      </c>
+      <c r="F184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" s="1">
+        <v>53500000</v>
+      </c>
+      <c r="C185" s="1">
+        <v>14</v>
+      </c>
+      <c r="D185" s="1">
+        <v>3</v>
+      </c>
+      <c r="E185" s="1">
+        <v>0</v>
+      </c>
+      <c r="F185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>184</v>
+      </c>
+      <c r="B186" s="1">
+        <v>53750000</v>
+      </c>
+      <c r="C186" s="2">
+        <v>20</v>
+      </c>
+      <c r="D186" s="2">
+        <v>300</v>
+      </c>
+      <c r="E186" s="1">
+        <v>0</v>
+      </c>
+      <c r="F186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" s="2">
+        <v>54000000</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1</v>
+      </c>
+      <c r="D187" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E187" s="1">
+        <v>0</v>
+      </c>
+      <c r="F187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" s="1">
+        <v>54250000</v>
+      </c>
+      <c r="C188" s="1">
+        <v>2</v>
+      </c>
+      <c r="D188" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E188" s="1">
+        <v>0</v>
+      </c>
+      <c r="F188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1">
+        <v>54500000</v>
+      </c>
+      <c r="C189" s="1">
+        <v>5</v>
+      </c>
+      <c r="D189" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E189" s="1">
+        <v>0</v>
+      </c>
+      <c r="F189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1">
+        <v>54750000</v>
+      </c>
+      <c r="C190" s="1">
+        <v>14</v>
+      </c>
+      <c r="D190" s="1">
+        <v>3</v>
+      </c>
+      <c r="E190" s="1">
+        <v>0</v>
+      </c>
+      <c r="F190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" s="1">
+        <v>55000000</v>
+      </c>
+      <c r="C191" s="2">
+        <v>20</v>
+      </c>
+      <c r="D191" s="2">
+        <v>300</v>
+      </c>
+      <c r="E191" s="1">
+        <v>0</v>
+      </c>
+      <c r="F191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" s="2">
+        <v>55250000</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E192" s="1">
+        <v>0</v>
+      </c>
+      <c r="F192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" s="1">
+        <v>55500000</v>
+      </c>
+      <c r="C193" s="1">
+        <v>2</v>
+      </c>
+      <c r="D193" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E193" s="1">
+        <v>0</v>
+      </c>
+      <c r="F193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" s="2">
+        <v>55750000</v>
+      </c>
+      <c r="C194" s="1">
+        <v>5</v>
+      </c>
+      <c r="D194" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E194" s="1">
+        <v>0</v>
+      </c>
+      <c r="F194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" s="1">
+        <v>56000000</v>
+      </c>
+      <c r="C195" s="1">
+        <v>14</v>
+      </c>
+      <c r="D195" s="1">
+        <v>3</v>
+      </c>
+      <c r="E195" s="1">
+        <v>0</v>
+      </c>
+      <c r="F195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" s="1">
+        <v>56250000</v>
+      </c>
+      <c r="C196" s="2">
+        <v>20</v>
+      </c>
+      <c r="D196" s="2">
+        <v>300</v>
+      </c>
+      <c r="E196" s="1">
+        <v>0</v>
+      </c>
+      <c r="F196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>195</v>
+      </c>
+      <c r="B197" s="1">
+        <v>56500000</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E197" s="1">
+        <v>0</v>
+      </c>
+      <c r="F197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" s="2">
+        <v>56750000</v>
+      </c>
+      <c r="C198" s="1">
+        <v>2</v>
+      </c>
+      <c r="D198" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E198" s="1">
+        <v>0</v>
+      </c>
+      <c r="F198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" s="1">
+        <v>57000000</v>
+      </c>
+      <c r="C199" s="1">
+        <v>5</v>
+      </c>
+      <c r="D199" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E199" s="1">
+        <v>0</v>
+      </c>
+      <c r="F199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>198</v>
+      </c>
+      <c r="B200" s="1">
+        <v>57250000</v>
+      </c>
+      <c r="C200" s="1">
+        <v>14</v>
+      </c>
+      <c r="D200" s="1">
+        <v>3</v>
+      </c>
+      <c r="E200" s="1">
+        <v>0</v>
+      </c>
+      <c r="F200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" s="1">
+        <v>57500000</v>
+      </c>
+      <c r="C201" s="2">
+        <v>20</v>
+      </c>
+      <c r="D201" s="2">
+        <v>300</v>
+      </c>
+      <c r="E201" s="1">
+        <v>0</v>
+      </c>
+      <c r="F201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1">
+        <v>57750000</v>
+      </c>
+      <c r="C202" s="1">
+        <v>1</v>
+      </c>
+      <c r="D202" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E202" s="1">
+        <v>0</v>
+      </c>
+      <c r="F202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" s="2">
+        <v>58000000</v>
+      </c>
+      <c r="C203" s="1">
+        <v>2</v>
+      </c>
+      <c r="D203" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E203" s="1">
+        <v>0</v>
+      </c>
+      <c r="F203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1">
+        <v>58250000</v>
+      </c>
+      <c r="C204" s="1">
+        <v>5</v>
+      </c>
+      <c r="D204" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E204" s="1">
+        <v>0</v>
+      </c>
+      <c r="F204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" s="2">
+        <v>58500000</v>
+      </c>
+      <c r="C205" s="1">
+        <v>14</v>
+      </c>
+      <c r="D205" s="1">
+        <v>3</v>
+      </c>
+      <c r="E205" s="1">
+        <v>0</v>
+      </c>
+      <c r="F205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" s="1">
+        <v>58750000</v>
+      </c>
+      <c r="C206" s="2">
+        <v>20</v>
+      </c>
+      <c r="D206" s="2">
+        <v>300</v>
+      </c>
+      <c r="E206" s="1">
+        <v>0</v>
+      </c>
+      <c r="F206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" s="1">
+        <v>59000000</v>
+      </c>
+      <c r="C207" s="1">
+        <v>1</v>
+      </c>
+      <c r="D207" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E207" s="1">
+        <v>0</v>
+      </c>
+      <c r="F207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>206</v>
+      </c>
+      <c r="B208" s="1">
+        <v>59250000</v>
+      </c>
+      <c r="C208" s="1">
+        <v>2</v>
+      </c>
+      <c r="D208" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E208" s="1">
+        <v>0</v>
+      </c>
+      <c r="F208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" s="2">
+        <v>59500000</v>
+      </c>
+      <c r="C209" s="1">
+        <v>5</v>
+      </c>
+      <c r="D209" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E209" s="1">
+        <v>0</v>
+      </c>
+      <c r="F209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1">
+        <v>59750000</v>
+      </c>
+      <c r="C210" s="1">
+        <v>14</v>
+      </c>
+      <c r="D210" s="1">
+        <v>3</v>
+      </c>
+      <c r="E210" s="1">
+        <v>0</v>
+      </c>
+      <c r="F210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>209</v>
+      </c>
+      <c r="B211" s="1">
+        <v>60000000</v>
+      </c>
+      <c r="C211" s="2">
+        <v>20</v>
+      </c>
+      <c r="D211" s="2">
+        <v>300</v>
+      </c>
+      <c r="E211" s="1">
+        <v>0</v>
+      </c>
+      <c r="F211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1">
+        <v>60250000</v>
+      </c>
+      <c r="C212" s="1">
+        <v>1</v>
+      </c>
+      <c r="D212" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E212" s="1">
+        <v>0</v>
+      </c>
+      <c r="F212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1">
+        <v>60500000</v>
+      </c>
+      <c r="C213" s="1">
+        <v>2</v>
+      </c>
+      <c r="D213" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E213" s="1">
+        <v>0</v>
+      </c>
+      <c r="F213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2">
+        <v>60750000</v>
+      </c>
+      <c r="C214" s="1">
+        <v>5</v>
+      </c>
+      <c r="D214" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E214" s="1">
+        <v>0</v>
+      </c>
+      <c r="F214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1">
+        <v>61000000</v>
+      </c>
+      <c r="C215" s="1">
+        <v>14</v>
+      </c>
+      <c r="D215" s="1">
+        <v>3</v>
+      </c>
+      <c r="E215" s="1">
+        <v>0</v>
+      </c>
+      <c r="F215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2">
+        <v>61250000</v>
+      </c>
+      <c r="C216" s="2">
+        <v>20</v>
+      </c>
+      <c r="D216" s="2">
+        <v>300</v>
+      </c>
+      <c r="E216" s="1">
+        <v>0</v>
+      </c>
+      <c r="F216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1">
+        <v>61500000</v>
+      </c>
+      <c r="C217" s="1">
+        <v>1</v>
+      </c>
+      <c r="D217" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E217" s="1">
+        <v>0</v>
+      </c>
+      <c r="F217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1">
+        <v>61750000</v>
+      </c>
+      <c r="C218" s="1">
+        <v>2</v>
+      </c>
+      <c r="D218" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E218" s="1">
+        <v>0</v>
+      </c>
+      <c r="F218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1">
+        <v>62000000</v>
+      </c>
+      <c r="C219" s="1">
+        <v>5</v>
+      </c>
+      <c r="D219" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E219" s="1">
+        <v>0</v>
+      </c>
+      <c r="F219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="2">
+        <v>62250000</v>
+      </c>
+      <c r="C220" s="1">
+        <v>14</v>
+      </c>
+      <c r="D220" s="1">
+        <v>3</v>
+      </c>
+      <c r="E220" s="1">
+        <v>0</v>
+      </c>
+      <c r="F220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1">
+        <v>62500000</v>
+      </c>
+      <c r="C221" s="2">
+        <v>20</v>
+      </c>
+      <c r="D221" s="2">
+        <v>300</v>
+      </c>
+      <c r="E221" s="1">
+        <v>0</v>
+      </c>
+      <c r="F221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1">
+        <v>62750000</v>
+      </c>
+      <c r="C222" s="1">
+        <v>1</v>
+      </c>
+      <c r="D222" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E222" s="1">
+        <v>0</v>
+      </c>
+      <c r="F222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1">
+        <v>63000000</v>
+      </c>
+      <c r="C223" s="1">
+        <v>2</v>
+      </c>
+      <c r="D223" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E223" s="1">
+        <v>0</v>
+      </c>
+      <c r="F223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1">
+        <v>63250000</v>
+      </c>
+      <c r="C224" s="1">
+        <v>5</v>
+      </c>
+      <c r="D224" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E224" s="1">
+        <v>0</v>
+      </c>
+      <c r="F224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="2">
+        <v>63500000</v>
+      </c>
+      <c r="C225" s="1">
+        <v>14</v>
+      </c>
+      <c r="D225" s="1">
+        <v>3</v>
+      </c>
+      <c r="E225" s="1">
+        <v>0</v>
+      </c>
+      <c r="F225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1">
+        <v>63750000</v>
+      </c>
+      <c r="C226" s="2">
+        <v>20</v>
+      </c>
+      <c r="D226" s="2">
+        <v>300</v>
+      </c>
+      <c r="E226" s="1">
+        <v>0</v>
+      </c>
+      <c r="F226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2">
+        <v>64000000</v>
+      </c>
+      <c r="C227" s="1">
+        <v>1</v>
+      </c>
+      <c r="D227" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E227" s="1">
+        <v>0</v>
+      </c>
+      <c r="F227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1">
+        <v>64250000</v>
+      </c>
+      <c r="C228" s="1">
+        <v>2</v>
+      </c>
+      <c r="D228" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E228" s="1">
+        <v>0</v>
+      </c>
+      <c r="F228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1">
+        <v>64500000</v>
+      </c>
+      <c r="C229" s="1">
+        <v>5</v>
+      </c>
+      <c r="D229" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E229" s="1">
+        <v>0</v>
+      </c>
+      <c r="F229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1">
+        <v>64750000</v>
+      </c>
+      <c r="C230" s="1">
+        <v>14</v>
+      </c>
+      <c r="D230" s="1">
+        <v>3</v>
+      </c>
+      <c r="E230" s="1">
+        <v>0</v>
+      </c>
+      <c r="F230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2">
+        <v>65000000</v>
+      </c>
+      <c r="C231" s="2">
+        <v>20</v>
+      </c>
+      <c r="D231" s="2">
+        <v>300</v>
+      </c>
+      <c r="E231" s="1">
+        <v>0</v>
+      </c>
+      <c r="F231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="1">
+        <v>65250000</v>
+      </c>
+      <c r="C232" s="1">
+        <v>1</v>
+      </c>
+      <c r="D232" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E232" s="1">
+        <v>0</v>
+      </c>
+      <c r="F232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1">
+        <v>65500000</v>
+      </c>
+      <c r="C233" s="1">
+        <v>2</v>
+      </c>
+      <c r="D233" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E233" s="1">
+        <v>0</v>
+      </c>
+      <c r="F233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1">
+        <v>65750000</v>
+      </c>
+      <c r="C234" s="1">
+        <v>5</v>
+      </c>
+      <c r="D234" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E234" s="1">
+        <v>0</v>
+      </c>
+      <c r="F234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66000000</v>
+      </c>
+      <c r="C235" s="1">
+        <v>14</v>
+      </c>
+      <c r="D235" s="1">
+        <v>3</v>
+      </c>
+      <c r="E235" s="1">
+        <v>0</v>
+      </c>
+      <c r="F235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2">
+        <v>66250000</v>
+      </c>
+      <c r="C236" s="2">
+        <v>20</v>
+      </c>
+      <c r="D236" s="2">
+        <v>300</v>
+      </c>
+      <c r="E236" s="1">
+        <v>0</v>
+      </c>
+      <c r="F236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1">
+        <v>66500000</v>
+      </c>
+      <c r="C237" s="1">
+        <v>1</v>
+      </c>
+      <c r="D237" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E237" s="1">
+        <v>0</v>
+      </c>
+      <c r="F237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2">
+        <v>66750000</v>
+      </c>
+      <c r="C238" s="1">
+        <v>2</v>
+      </c>
+      <c r="D238" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E238" s="1">
+        <v>0</v>
+      </c>
+      <c r="F238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="1">
+        <v>67000000</v>
+      </c>
+      <c r="C239" s="1">
+        <v>5</v>
+      </c>
+      <c r="D239" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E239" s="1">
+        <v>0</v>
+      </c>
+      <c r="F239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" s="1">
+        <v>67250000</v>
+      </c>
+      <c r="C240" s="1">
+        <v>14</v>
+      </c>
+      <c r="D240" s="1">
+        <v>3</v>
+      </c>
+      <c r="E240" s="1">
+        <v>0</v>
+      </c>
+      <c r="F240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>239</v>
+      </c>
+      <c r="B241" s="1">
+        <v>67500000</v>
+      </c>
+      <c r="C241" s="2">
+        <v>20</v>
+      </c>
+      <c r="D241" s="2">
+        <v>300</v>
+      </c>
+      <c r="E241" s="1">
+        <v>0</v>
+      </c>
+      <c r="F241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2">
+        <v>67750000</v>
+      </c>
+      <c r="C242" s="1">
+        <v>1</v>
+      </c>
+      <c r="D242" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E242" s="1">
+        <v>0</v>
+      </c>
+      <c r="F242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="1">
+        <v>68000000</v>
+      </c>
+      <c r="C243" s="1">
+        <v>2</v>
+      </c>
+      <c r="D243" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E243" s="1">
+        <v>0</v>
+      </c>
+      <c r="F243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1">
+        <v>68250000</v>
+      </c>
+      <c r="C244" s="1">
+        <v>5</v>
+      </c>
+      <c r="D244" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E244" s="1">
+        <v>0</v>
+      </c>
+      <c r="F244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="1">
+        <v>68500000</v>
+      </c>
+      <c r="C245" s="1">
+        <v>14</v>
+      </c>
+      <c r="D245" s="1">
+        <v>3</v>
+      </c>
+      <c r="E245" s="1">
+        <v>0</v>
+      </c>
+      <c r="F245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" s="1">
+        <v>68750000</v>
+      </c>
+      <c r="C246" s="2">
+        <v>20</v>
+      </c>
+      <c r="D246" s="2">
+        <v>300</v>
+      </c>
+      <c r="E246" s="1">
+        <v>0</v>
+      </c>
+      <c r="F246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2">
+        <v>69000000</v>
+      </c>
+      <c r="C247" s="1">
+        <v>1</v>
+      </c>
+      <c r="D247" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E247" s="1">
+        <v>0</v>
+      </c>
+      <c r="F247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="1">
+        <v>69250000</v>
+      </c>
+      <c r="C248" s="1">
+        <v>2</v>
+      </c>
+      <c r="D248" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E248" s="1">
+        <v>0</v>
+      </c>
+      <c r="F248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2">
+        <v>69500000</v>
+      </c>
+      <c r="C249" s="1">
+        <v>5</v>
+      </c>
+      <c r="D249" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E249" s="1">
+        <v>0</v>
+      </c>
+      <c r="F249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" s="1">
+        <v>69750000</v>
+      </c>
+      <c r="C250" s="1">
+        <v>14</v>
+      </c>
+      <c r="D250" s="1">
+        <v>3</v>
+      </c>
+      <c r="E250" s="1">
+        <v>0</v>
+      </c>
+      <c r="F250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" s="1">
+        <v>70000000</v>
+      </c>
+      <c r="C251" s="2">
+        <v>20</v>
+      </c>
+      <c r="D251" s="2">
+        <v>300</v>
+      </c>
+      <c r="E251" s="1">
+        <v>0</v>
+      </c>
+      <c r="F251" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SulPass.xlsx
+++ b/Assets/06.Table/SulPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22402B06-C6DA-4FCA-A4BF-32EB28679E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844DC62A-A117-4A07-A755-7BC737EB496B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F251"/>
+  <dimension ref="A1:F371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C247" sqref="C247:F251"/>
+    <sheetView tabSelected="1" topLeftCell="A331" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E369" sqref="E369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5492,6 +5492,2406 @@
         <v>0</v>
       </c>
     </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" s="1">
+        <v>70250000</v>
+      </c>
+      <c r="C252" s="1">
+        <v>1</v>
+      </c>
+      <c r="D252" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E252" s="1">
+        <v>0</v>
+      </c>
+      <c r="F252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="1">
+        <v>70500000</v>
+      </c>
+      <c r="C253" s="1">
+        <v>2</v>
+      </c>
+      <c r="D253" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E253" s="1">
+        <v>0</v>
+      </c>
+      <c r="F253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="1">
+        <v>70750000</v>
+      </c>
+      <c r="C254" s="1">
+        <v>5</v>
+      </c>
+      <c r="D254" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E254" s="1">
+        <v>0</v>
+      </c>
+      <c r="F254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" s="1">
+        <v>71000000</v>
+      </c>
+      <c r="C255" s="1">
+        <v>14</v>
+      </c>
+      <c r="D255" s="1">
+        <v>3</v>
+      </c>
+      <c r="E255" s="1">
+        <v>0</v>
+      </c>
+      <c r="F255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2">
+        <v>71250000</v>
+      </c>
+      <c r="C256" s="2">
+        <v>20</v>
+      </c>
+      <c r="D256" s="2">
+        <v>300</v>
+      </c>
+      <c r="E256" s="1">
+        <v>0</v>
+      </c>
+      <c r="F256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" s="1">
+        <v>71500000</v>
+      </c>
+      <c r="C257" s="1">
+        <v>1</v>
+      </c>
+      <c r="D257" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E257" s="1">
+        <v>0</v>
+      </c>
+      <c r="F257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2">
+        <v>71750000</v>
+      </c>
+      <c r="C258" s="1">
+        <v>2</v>
+      </c>
+      <c r="D258" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E258" s="1">
+        <v>0</v>
+      </c>
+      <c r="F258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" s="1">
+        <v>72000000</v>
+      </c>
+      <c r="C259" s="1">
+        <v>5</v>
+      </c>
+      <c r="D259" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E259" s="1">
+        <v>0</v>
+      </c>
+      <c r="F259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" s="1">
+        <v>72250000</v>
+      </c>
+      <c r="C260" s="1">
+        <v>14</v>
+      </c>
+      <c r="D260" s="1">
+        <v>3</v>
+      </c>
+      <c r="E260" s="1">
+        <v>0</v>
+      </c>
+      <c r="F260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" s="1">
+        <v>72500000</v>
+      </c>
+      <c r="C261" s="2">
+        <v>20</v>
+      </c>
+      <c r="D261" s="2">
+        <v>300</v>
+      </c>
+      <c r="E261" s="1">
+        <v>0</v>
+      </c>
+      <c r="F261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" s="1">
+        <v>72750000</v>
+      </c>
+      <c r="C262" s="1">
+        <v>1</v>
+      </c>
+      <c r="D262" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E262" s="1">
+        <v>0</v>
+      </c>
+      <c r="F262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" s="1">
+        <v>73000000</v>
+      </c>
+      <c r="C263" s="1">
+        <v>2</v>
+      </c>
+      <c r="D263" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E263" s="1">
+        <v>0</v>
+      </c>
+      <c r="F263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" s="1">
+        <v>73250000</v>
+      </c>
+      <c r="C264" s="1">
+        <v>5</v>
+      </c>
+      <c r="D264" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E264" s="1">
+        <v>0</v>
+      </c>
+      <c r="F264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" s="2">
+        <v>73500000</v>
+      </c>
+      <c r="C265" s="1">
+        <v>14</v>
+      </c>
+      <c r="D265" s="1">
+        <v>3</v>
+      </c>
+      <c r="E265" s="1">
+        <v>0</v>
+      </c>
+      <c r="F265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" s="1">
+        <v>73750000</v>
+      </c>
+      <c r="C266" s="2">
+        <v>20</v>
+      </c>
+      <c r="D266" s="2">
+        <v>300</v>
+      </c>
+      <c r="E266" s="1">
+        <v>0</v>
+      </c>
+      <c r="F266" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" s="2">
+        <v>74000000</v>
+      </c>
+      <c r="C267" s="1">
+        <v>1</v>
+      </c>
+      <c r="D267" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E267" s="1">
+        <v>0</v>
+      </c>
+      <c r="F267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" s="1">
+        <v>74250000</v>
+      </c>
+      <c r="C268" s="1">
+        <v>2</v>
+      </c>
+      <c r="D268" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E268" s="1">
+        <v>0</v>
+      </c>
+      <c r="F268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" s="1">
+        <v>74500000</v>
+      </c>
+      <c r="C269" s="1">
+        <v>5</v>
+      </c>
+      <c r="D269" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E269" s="1">
+        <v>0</v>
+      </c>
+      <c r="F269" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" s="1">
+        <v>74750000</v>
+      </c>
+      <c r="C270" s="1">
+        <v>14</v>
+      </c>
+      <c r="D270" s="1">
+        <v>3</v>
+      </c>
+      <c r="E270" s="1">
+        <v>0</v>
+      </c>
+      <c r="F270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" s="1">
+        <v>75000000</v>
+      </c>
+      <c r="C271" s="2">
+        <v>20</v>
+      </c>
+      <c r="D271" s="2">
+        <v>300</v>
+      </c>
+      <c r="E271" s="1">
+        <v>0</v>
+      </c>
+      <c r="F271" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" s="1">
+        <v>75250000</v>
+      </c>
+      <c r="C272" s="1">
+        <v>1</v>
+      </c>
+      <c r="D272" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E272" s="1">
+        <v>0</v>
+      </c>
+      <c r="F272" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" s="1">
+        <v>75500000</v>
+      </c>
+      <c r="C273" s="1">
+        <v>2</v>
+      </c>
+      <c r="D273" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E273" s="1">
+        <v>0</v>
+      </c>
+      <c r="F273" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" s="2">
+        <v>75750000</v>
+      </c>
+      <c r="C274" s="1">
+        <v>5</v>
+      </c>
+      <c r="D274" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E274" s="1">
+        <v>0</v>
+      </c>
+      <c r="F274" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" s="1">
+        <v>76000000</v>
+      </c>
+      <c r="C275" s="1">
+        <v>14</v>
+      </c>
+      <c r="D275" s="1">
+        <v>3</v>
+      </c>
+      <c r="E275" s="1">
+        <v>0</v>
+      </c>
+      <c r="F275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" s="2">
+        <v>76250000</v>
+      </c>
+      <c r="C276" s="2">
+        <v>20</v>
+      </c>
+      <c r="D276" s="2">
+        <v>300</v>
+      </c>
+      <c r="E276" s="1">
+        <v>0</v>
+      </c>
+      <c r="F276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" s="1">
+        <v>76500000</v>
+      </c>
+      <c r="C277" s="1">
+        <v>1</v>
+      </c>
+      <c r="D277" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E277" s="1">
+        <v>0</v>
+      </c>
+      <c r="F277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" s="1">
+        <v>76750000</v>
+      </c>
+      <c r="C278" s="1">
+        <v>2</v>
+      </c>
+      <c r="D278" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E278" s="1">
+        <v>0</v>
+      </c>
+      <c r="F278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" s="1">
+        <v>77000000</v>
+      </c>
+      <c r="C279" s="1">
+        <v>5</v>
+      </c>
+      <c r="D279" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E279" s="1">
+        <v>0</v>
+      </c>
+      <c r="F279" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" s="1">
+        <v>77250000</v>
+      </c>
+      <c r="C280" s="1">
+        <v>14</v>
+      </c>
+      <c r="D280" s="1">
+        <v>3</v>
+      </c>
+      <c r="E280" s="1">
+        <v>0</v>
+      </c>
+      <c r="F280" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" s="1">
+        <v>77500000</v>
+      </c>
+      <c r="C281" s="2">
+        <v>20</v>
+      </c>
+      <c r="D281" s="2">
+        <v>300</v>
+      </c>
+      <c r="E281" s="1">
+        <v>0</v>
+      </c>
+      <c r="F281" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" s="1">
+        <v>77750000</v>
+      </c>
+      <c r="C282" s="1">
+        <v>1</v>
+      </c>
+      <c r="D282" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E282" s="1">
+        <v>0</v>
+      </c>
+      <c r="F282" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" s="2">
+        <v>78000000</v>
+      </c>
+      <c r="C283" s="1">
+        <v>2</v>
+      </c>
+      <c r="D283" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E283" s="1">
+        <v>0</v>
+      </c>
+      <c r="F283" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" s="1">
+        <v>78250000</v>
+      </c>
+      <c r="C284" s="1">
+        <v>5</v>
+      </c>
+      <c r="D284" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E284" s="1">
+        <v>0</v>
+      </c>
+      <c r="F284" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" s="2">
+        <v>78500000</v>
+      </c>
+      <c r="C285" s="1">
+        <v>14</v>
+      </c>
+      <c r="D285" s="1">
+        <v>3</v>
+      </c>
+      <c r="E285" s="1">
+        <v>0</v>
+      </c>
+      <c r="F285" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" s="1">
+        <v>78750000</v>
+      </c>
+      <c r="C286" s="2">
+        <v>20</v>
+      </c>
+      <c r="D286" s="2">
+        <v>300</v>
+      </c>
+      <c r="E286" s="1">
+        <v>0</v>
+      </c>
+      <c r="F286" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" s="1">
+        <v>79000000</v>
+      </c>
+      <c r="C287" s="1">
+        <v>1</v>
+      </c>
+      <c r="D287" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E287" s="1">
+        <v>0</v>
+      </c>
+      <c r="F287" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" s="1">
+        <v>79250000</v>
+      </c>
+      <c r="C288" s="1">
+        <v>2</v>
+      </c>
+      <c r="D288" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E288" s="1">
+        <v>0</v>
+      </c>
+      <c r="F288" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" s="1">
+        <v>79500000</v>
+      </c>
+      <c r="C289" s="1">
+        <v>5</v>
+      </c>
+      <c r="D289" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E289" s="1">
+        <v>0</v>
+      </c>
+      <c r="F289" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" s="1">
+        <v>79750000</v>
+      </c>
+      <c r="C290" s="1">
+        <v>14</v>
+      </c>
+      <c r="D290" s="1">
+        <v>3</v>
+      </c>
+      <c r="E290" s="1">
+        <v>0</v>
+      </c>
+      <c r="F290" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" s="1">
+        <v>80000000</v>
+      </c>
+      <c r="C291" s="2">
+        <v>20</v>
+      </c>
+      <c r="D291" s="2">
+        <v>300</v>
+      </c>
+      <c r="E291" s="1">
+        <v>0</v>
+      </c>
+      <c r="F291" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" s="2">
+        <v>80250000</v>
+      </c>
+      <c r="C292" s="1">
+        <v>1</v>
+      </c>
+      <c r="D292" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E292" s="1">
+        <v>0</v>
+      </c>
+      <c r="F292" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" s="1">
+        <v>80500000</v>
+      </c>
+      <c r="C293" s="1">
+        <v>2</v>
+      </c>
+      <c r="D293" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E293" s="1">
+        <v>0</v>
+      </c>
+      <c r="F293" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" s="2">
+        <v>80750000</v>
+      </c>
+      <c r="C294" s="1">
+        <v>5</v>
+      </c>
+      <c r="D294" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E294" s="1">
+        <v>0</v>
+      </c>
+      <c r="F294" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" s="1">
+        <v>81000000</v>
+      </c>
+      <c r="C295" s="1">
+        <v>14</v>
+      </c>
+      <c r="D295" s="1">
+        <v>3</v>
+      </c>
+      <c r="E295" s="1">
+        <v>0</v>
+      </c>
+      <c r="F295" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" s="1">
+        <v>81250000</v>
+      </c>
+      <c r="C296" s="2">
+        <v>20</v>
+      </c>
+      <c r="D296" s="2">
+        <v>300</v>
+      </c>
+      <c r="E296" s="1">
+        <v>0</v>
+      </c>
+      <c r="F296" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" s="1">
+        <v>81500000</v>
+      </c>
+      <c r="C297" s="1">
+        <v>1</v>
+      </c>
+      <c r="D297" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E297" s="1">
+        <v>0</v>
+      </c>
+      <c r="F297" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" s="1">
+        <v>81750000</v>
+      </c>
+      <c r="C298" s="1">
+        <v>2</v>
+      </c>
+      <c r="D298" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E298" s="1">
+        <v>0</v>
+      </c>
+      <c r="F298" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" s="1">
+        <v>82000000</v>
+      </c>
+      <c r="C299" s="1">
+        <v>5</v>
+      </c>
+      <c r="D299" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E299" s="1">
+        <v>0</v>
+      </c>
+      <c r="F299" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" s="1">
+        <v>82250000</v>
+      </c>
+      <c r="C300" s="1">
+        <v>14</v>
+      </c>
+      <c r="D300" s="1">
+        <v>3</v>
+      </c>
+      <c r="E300" s="1">
+        <v>0</v>
+      </c>
+      <c r="F300" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" s="2">
+        <v>82500000</v>
+      </c>
+      <c r="C301" s="2">
+        <v>20</v>
+      </c>
+      <c r="D301" s="2">
+        <v>300</v>
+      </c>
+      <c r="E301" s="1">
+        <v>0</v>
+      </c>
+      <c r="F301" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" s="1">
+        <v>82750000</v>
+      </c>
+      <c r="C302" s="1">
+        <v>1</v>
+      </c>
+      <c r="D302" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E302" s="1">
+        <v>0</v>
+      </c>
+      <c r="F302" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" s="2">
+        <v>83000000</v>
+      </c>
+      <c r="C303" s="1">
+        <v>2</v>
+      </c>
+      <c r="D303" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E303" s="1">
+        <v>0</v>
+      </c>
+      <c r="F303" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" s="1">
+        <v>83250000</v>
+      </c>
+      <c r="C304" s="1">
+        <v>5</v>
+      </c>
+      <c r="D304" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E304" s="1">
+        <v>0</v>
+      </c>
+      <c r="F304" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" s="1">
+        <v>83500000</v>
+      </c>
+      <c r="C305" s="1">
+        <v>14</v>
+      </c>
+      <c r="D305" s="1">
+        <v>3</v>
+      </c>
+      <c r="E305" s="1">
+        <v>0</v>
+      </c>
+      <c r="F305" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" s="1">
+        <v>83750000</v>
+      </c>
+      <c r="C306" s="2">
+        <v>20</v>
+      </c>
+      <c r="D306" s="2">
+        <v>300</v>
+      </c>
+      <c r="E306" s="1">
+        <v>0</v>
+      </c>
+      <c r="F306" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" s="1">
+        <v>84000000</v>
+      </c>
+      <c r="C307" s="1">
+        <v>1</v>
+      </c>
+      <c r="D307" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E307" s="1">
+        <v>0</v>
+      </c>
+      <c r="F307" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" s="1">
+        <v>84250000</v>
+      </c>
+      <c r="C308" s="1">
+        <v>2</v>
+      </c>
+      <c r="D308" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E308" s="1">
+        <v>0</v>
+      </c>
+      <c r="F308" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" s="1">
+        <v>84500000</v>
+      </c>
+      <c r="C309" s="1">
+        <v>5</v>
+      </c>
+      <c r="D309" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E309" s="1">
+        <v>0</v>
+      </c>
+      <c r="F309" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" s="2">
+        <v>84750000</v>
+      </c>
+      <c r="C310" s="1">
+        <v>14</v>
+      </c>
+      <c r="D310" s="1">
+        <v>3</v>
+      </c>
+      <c r="E310" s="1">
+        <v>0</v>
+      </c>
+      <c r="F310" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" s="1">
+        <v>85000000</v>
+      </c>
+      <c r="C311" s="2">
+        <v>20</v>
+      </c>
+      <c r="D311" s="2">
+        <v>300</v>
+      </c>
+      <c r="E311" s="1">
+        <v>0</v>
+      </c>
+      <c r="F311" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" s="2">
+        <v>85250000</v>
+      </c>
+      <c r="C312" s="1">
+        <v>1</v>
+      </c>
+      <c r="D312" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E312" s="1">
+        <v>0</v>
+      </c>
+      <c r="F312" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" s="1">
+        <v>85500000</v>
+      </c>
+      <c r="C313" s="1">
+        <v>2</v>
+      </c>
+      <c r="D313" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E313" s="1">
+        <v>0</v>
+      </c>
+      <c r="F313" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" s="1">
+        <v>85750000</v>
+      </c>
+      <c r="C314" s="1">
+        <v>5</v>
+      </c>
+      <c r="D314" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E314" s="1">
+        <v>0</v>
+      </c>
+      <c r="F314" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" s="1">
+        <v>86000000</v>
+      </c>
+      <c r="C315" s="1">
+        <v>14</v>
+      </c>
+      <c r="D315" s="1">
+        <v>3</v>
+      </c>
+      <c r="E315" s="1">
+        <v>0</v>
+      </c>
+      <c r="F315" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" s="1">
+        <v>86250000</v>
+      </c>
+      <c r="C316" s="2">
+        <v>20</v>
+      </c>
+      <c r="D316" s="2">
+        <v>300</v>
+      </c>
+      <c r="E316" s="1">
+        <v>0</v>
+      </c>
+      <c r="F316" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" s="1">
+        <v>86500000</v>
+      </c>
+      <c r="C317" s="1">
+        <v>1</v>
+      </c>
+      <c r="D317" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E317" s="1">
+        <v>0</v>
+      </c>
+      <c r="F317" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" s="1">
+        <v>86750000</v>
+      </c>
+      <c r="C318" s="1">
+        <v>2</v>
+      </c>
+      <c r="D318" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E318" s="1">
+        <v>0</v>
+      </c>
+      <c r="F318" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" s="2">
+        <v>87000000</v>
+      </c>
+      <c r="C319" s="1">
+        <v>5</v>
+      </c>
+      <c r="D319" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E319" s="1">
+        <v>0</v>
+      </c>
+      <c r="F319" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" s="1">
+        <v>87250000</v>
+      </c>
+      <c r="C320" s="1">
+        <v>14</v>
+      </c>
+      <c r="D320" s="1">
+        <v>3</v>
+      </c>
+      <c r="E320" s="1">
+        <v>0</v>
+      </c>
+      <c r="F320" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" s="2">
+        <v>87500000</v>
+      </c>
+      <c r="C321" s="2">
+        <v>20</v>
+      </c>
+      <c r="D321" s="2">
+        <v>300</v>
+      </c>
+      <c r="E321" s="1">
+        <v>0</v>
+      </c>
+      <c r="F321" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" s="1">
+        <v>87750000</v>
+      </c>
+      <c r="C322" s="1">
+        <v>1</v>
+      </c>
+      <c r="D322" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E322" s="1">
+        <v>0</v>
+      </c>
+      <c r="F322" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" s="1">
+        <v>88000000</v>
+      </c>
+      <c r="C323" s="1">
+        <v>2</v>
+      </c>
+      <c r="D323" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E323" s="1">
+        <v>0</v>
+      </c>
+      <c r="F323" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" s="1">
+        <v>88250000</v>
+      </c>
+      <c r="C324" s="1">
+        <v>5</v>
+      </c>
+      <c r="D324" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E324" s="1">
+        <v>0</v>
+      </c>
+      <c r="F324" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" s="1">
+        <v>88500000</v>
+      </c>
+      <c r="C325" s="1">
+        <v>14</v>
+      </c>
+      <c r="D325" s="1">
+        <v>3</v>
+      </c>
+      <c r="E325" s="1">
+        <v>0</v>
+      </c>
+      <c r="F325" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" s="1">
+        <v>88750000</v>
+      </c>
+      <c r="C326" s="2">
+        <v>20</v>
+      </c>
+      <c r="D326" s="2">
+        <v>300</v>
+      </c>
+      <c r="E326" s="1">
+        <v>0</v>
+      </c>
+      <c r="F326" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" s="1">
+        <v>89000000</v>
+      </c>
+      <c r="C327" s="1">
+        <v>1</v>
+      </c>
+      <c r="D327" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E327" s="1">
+        <v>0</v>
+      </c>
+      <c r="F327" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" s="2">
+        <v>89250000</v>
+      </c>
+      <c r="C328" s="1">
+        <v>2</v>
+      </c>
+      <c r="D328" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E328" s="1">
+        <v>0</v>
+      </c>
+      <c r="F328" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" s="1">
+        <v>89500000</v>
+      </c>
+      <c r="C329" s="1">
+        <v>5</v>
+      </c>
+      <c r="D329" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E329" s="1">
+        <v>0</v>
+      </c>
+      <c r="F329" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" s="2">
+        <v>89750000</v>
+      </c>
+      <c r="C330" s="1">
+        <v>14</v>
+      </c>
+      <c r="D330" s="1">
+        <v>3</v>
+      </c>
+      <c r="E330" s="1">
+        <v>0</v>
+      </c>
+      <c r="F330" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" s="1">
+        <v>90000000</v>
+      </c>
+      <c r="C331" s="2">
+        <v>20</v>
+      </c>
+      <c r="D331" s="2">
+        <v>300</v>
+      </c>
+      <c r="E331" s="1">
+        <v>0</v>
+      </c>
+      <c r="F331" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" s="1">
+        <v>90250000</v>
+      </c>
+      <c r="C332" s="1">
+        <v>1</v>
+      </c>
+      <c r="D332" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E332" s="1">
+        <v>0</v>
+      </c>
+      <c r="F332" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" s="1">
+        <v>90500000</v>
+      </c>
+      <c r="C333" s="1">
+        <v>2</v>
+      </c>
+      <c r="D333" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E333" s="1">
+        <v>0</v>
+      </c>
+      <c r="F333" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" s="1">
+        <v>90750000</v>
+      </c>
+      <c r="C334" s="1">
+        <v>5</v>
+      </c>
+      <c r="D334" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E334" s="1">
+        <v>0</v>
+      </c>
+      <c r="F334" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" s="1">
+        <v>91000000</v>
+      </c>
+      <c r="C335" s="1">
+        <v>14</v>
+      </c>
+      <c r="D335" s="1">
+        <v>3</v>
+      </c>
+      <c r="E335" s="1">
+        <v>0</v>
+      </c>
+      <c r="F335" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" s="1">
+        <v>91250000</v>
+      </c>
+      <c r="C336" s="2">
+        <v>20</v>
+      </c>
+      <c r="D336" s="2">
+        <v>300</v>
+      </c>
+      <c r="E336" s="1">
+        <v>0</v>
+      </c>
+      <c r="F336" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" s="2">
+        <v>91500000</v>
+      </c>
+      <c r="C337" s="1">
+        <v>1</v>
+      </c>
+      <c r="D337" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E337" s="1">
+        <v>0</v>
+      </c>
+      <c r="F337" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" s="1">
+        <v>91750000</v>
+      </c>
+      <c r="C338" s="1">
+        <v>2</v>
+      </c>
+      <c r="D338" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E338" s="1">
+        <v>0</v>
+      </c>
+      <c r="F338" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" s="2">
+        <v>92000000</v>
+      </c>
+      <c r="C339" s="1">
+        <v>5</v>
+      </c>
+      <c r="D339" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E339" s="1">
+        <v>0</v>
+      </c>
+      <c r="F339" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" s="1">
+        <v>92250000</v>
+      </c>
+      <c r="C340" s="1">
+        <v>14</v>
+      </c>
+      <c r="D340" s="1">
+        <v>3</v>
+      </c>
+      <c r="E340" s="1">
+        <v>0</v>
+      </c>
+      <c r="F340" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" s="1">
+        <v>92500000</v>
+      </c>
+      <c r="C341" s="2">
+        <v>20</v>
+      </c>
+      <c r="D341" s="2">
+        <v>300</v>
+      </c>
+      <c r="E341" s="1">
+        <v>0</v>
+      </c>
+      <c r="F341" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" s="1">
+        <v>92750000</v>
+      </c>
+      <c r="C342" s="1">
+        <v>1</v>
+      </c>
+      <c r="D342" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E342" s="1">
+        <v>0</v>
+      </c>
+      <c r="F342" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" s="1">
+        <v>93000000</v>
+      </c>
+      <c r="C343" s="1">
+        <v>2</v>
+      </c>
+      <c r="D343" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E343" s="1">
+        <v>0</v>
+      </c>
+      <c r="F343" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" s="1">
+        <v>93250000</v>
+      </c>
+      <c r="C344" s="1">
+        <v>5</v>
+      </c>
+      <c r="D344" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E344" s="1">
+        <v>0</v>
+      </c>
+      <c r="F344" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" s="1">
+        <v>93500000</v>
+      </c>
+      <c r="C345" s="1">
+        <v>14</v>
+      </c>
+      <c r="D345" s="1">
+        <v>3</v>
+      </c>
+      <c r="E345" s="1">
+        <v>0</v>
+      </c>
+      <c r="F345" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" s="2">
+        <v>93750000</v>
+      </c>
+      <c r="C346" s="2">
+        <v>20</v>
+      </c>
+      <c r="D346" s="2">
+        <v>300</v>
+      </c>
+      <c r="E346" s="1">
+        <v>0</v>
+      </c>
+      <c r="F346" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" s="1">
+        <v>94000000</v>
+      </c>
+      <c r="C347" s="1">
+        <v>1</v>
+      </c>
+      <c r="D347" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E347" s="1">
+        <v>0</v>
+      </c>
+      <c r="F347" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" s="2">
+        <v>94250000</v>
+      </c>
+      <c r="C348" s="1">
+        <v>2</v>
+      </c>
+      <c r="D348" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E348" s="1">
+        <v>0</v>
+      </c>
+      <c r="F348" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" s="1">
+        <v>94500000</v>
+      </c>
+      <c r="C349" s="1">
+        <v>5</v>
+      </c>
+      <c r="D349" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E349" s="1">
+        <v>0</v>
+      </c>
+      <c r="F349" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" s="1">
+        <v>94750000</v>
+      </c>
+      <c r="C350" s="1">
+        <v>14</v>
+      </c>
+      <c r="D350" s="1">
+        <v>3</v>
+      </c>
+      <c r="E350" s="1">
+        <v>0</v>
+      </c>
+      <c r="F350" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" s="1">
+        <v>95000000</v>
+      </c>
+      <c r="C351" s="2">
+        <v>20</v>
+      </c>
+      <c r="D351" s="2">
+        <v>300</v>
+      </c>
+      <c r="E351" s="1">
+        <v>0</v>
+      </c>
+      <c r="F351" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" s="1">
+        <v>95250000</v>
+      </c>
+      <c r="C352" s="1">
+        <v>1</v>
+      </c>
+      <c r="D352" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E352" s="1">
+        <v>0</v>
+      </c>
+      <c r="F352" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" s="1">
+        <v>95500000</v>
+      </c>
+      <c r="C353" s="1">
+        <v>2</v>
+      </c>
+      <c r="D353" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E353" s="1">
+        <v>0</v>
+      </c>
+      <c r="F353" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" s="1">
+        <v>95750000</v>
+      </c>
+      <c r="C354" s="1">
+        <v>5</v>
+      </c>
+      <c r="D354" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E354" s="1">
+        <v>0</v>
+      </c>
+      <c r="F354" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" s="2">
+        <v>96000000</v>
+      </c>
+      <c r="C355" s="1">
+        <v>14</v>
+      </c>
+      <c r="D355" s="1">
+        <v>3</v>
+      </c>
+      <c r="E355" s="1">
+        <v>0</v>
+      </c>
+      <c r="F355" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" s="1">
+        <v>96250000</v>
+      </c>
+      <c r="C356" s="2">
+        <v>20</v>
+      </c>
+      <c r="D356" s="2">
+        <v>300</v>
+      </c>
+      <c r="E356" s="1">
+        <v>0</v>
+      </c>
+      <c r="F356" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" s="2">
+        <v>96500000</v>
+      </c>
+      <c r="C357" s="1">
+        <v>1</v>
+      </c>
+      <c r="D357" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E357" s="1">
+        <v>0</v>
+      </c>
+      <c r="F357" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" s="1">
+        <v>96750000</v>
+      </c>
+      <c r="C358" s="1">
+        <v>2</v>
+      </c>
+      <c r="D358" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E358" s="1">
+        <v>0</v>
+      </c>
+      <c r="F358" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" s="1">
+        <v>97000000</v>
+      </c>
+      <c r="C359" s="1">
+        <v>5</v>
+      </c>
+      <c r="D359" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E359" s="1">
+        <v>0</v>
+      </c>
+      <c r="F359" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" s="1">
+        <v>97250000</v>
+      </c>
+      <c r="C360" s="1">
+        <v>14</v>
+      </c>
+      <c r="D360" s="1">
+        <v>3</v>
+      </c>
+      <c r="E360" s="1">
+        <v>0</v>
+      </c>
+      <c r="F360" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" s="1">
+        <v>97500000</v>
+      </c>
+      <c r="C361" s="2">
+        <v>20</v>
+      </c>
+      <c r="D361" s="2">
+        <v>300</v>
+      </c>
+      <c r="E361" s="1">
+        <v>0</v>
+      </c>
+      <c r="F361" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" s="1">
+        <v>97750000</v>
+      </c>
+      <c r="C362" s="1">
+        <v>1</v>
+      </c>
+      <c r="D362" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E362" s="1">
+        <v>0</v>
+      </c>
+      <c r="F362" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" s="1">
+        <v>98000000</v>
+      </c>
+      <c r="C363" s="1">
+        <v>2</v>
+      </c>
+      <c r="D363" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E363" s="1">
+        <v>0</v>
+      </c>
+      <c r="F363" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" s="2">
+        <v>98250000</v>
+      </c>
+      <c r="C364" s="1">
+        <v>5</v>
+      </c>
+      <c r="D364" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E364" s="1">
+        <v>0</v>
+      </c>
+      <c r="F364" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" s="1">
+        <v>98500000</v>
+      </c>
+      <c r="C365" s="1">
+        <v>14</v>
+      </c>
+      <c r="D365" s="1">
+        <v>3</v>
+      </c>
+      <c r="E365" s="1">
+        <v>0</v>
+      </c>
+      <c r="F365" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" s="2">
+        <v>98750000</v>
+      </c>
+      <c r="C366" s="2">
+        <v>20</v>
+      </c>
+      <c r="D366" s="2">
+        <v>300</v>
+      </c>
+      <c r="E366" s="1">
+        <v>0</v>
+      </c>
+      <c r="F366" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" s="1">
+        <v>99000000</v>
+      </c>
+      <c r="C367" s="1">
+        <v>1</v>
+      </c>
+      <c r="D367" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E367" s="1">
+        <v>0</v>
+      </c>
+      <c r="F367" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" s="1">
+        <v>99250000</v>
+      </c>
+      <c r="C368" s="1">
+        <v>2</v>
+      </c>
+      <c r="D368" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="E368" s="1">
+        <v>0</v>
+      </c>
+      <c r="F368" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" s="1">
+        <v>99500000</v>
+      </c>
+      <c r="C369" s="1">
+        <v>5</v>
+      </c>
+      <c r="D369" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E369" s="1">
+        <v>0</v>
+      </c>
+      <c r="F369" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" s="1">
+        <v>99750000</v>
+      </c>
+      <c r="C370" s="1">
+        <v>14</v>
+      </c>
+      <c r="D370" s="1">
+        <v>3</v>
+      </c>
+      <c r="E370" s="1">
+        <v>0</v>
+      </c>
+      <c r="F370" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="C371" s="2">
+        <v>20</v>
+      </c>
+      <c r="D371" s="2">
+        <v>300</v>
+      </c>
+      <c r="E371" s="1">
+        <v>0</v>
+      </c>
+      <c r="F371" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
